--- a/Test Procedure/Symptom Checker/TestWorkbook.xlsx
+++ b/Test Procedure/Symptom Checker/TestWorkbook.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27510"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mason/Documents/Senior-Design-2-Electric-Boogaloo/Test Procedure/Symptom Checker/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-38400" yWindow="-5140" windowWidth="38400" windowHeight="21140"/>
   </bookViews>
   <sheets>
     <sheet name="Anemia" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,6 +65,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,12 +116,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -130,14 +148,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -164,6 +183,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -339,64 +359,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1023"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -404,7 +424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -412,7 +432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -420,7 +440,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -428,7 +448,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -436,7 +456,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -444,7 +464,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -452,7 +472,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -460,7 +480,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -468,7 +488,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>8</v>
       </c>
@@ -476,7 +496,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>8</v>
       </c>
@@ -484,7 +504,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>8</v>
       </c>
@@ -492,7 +512,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>8</v>
       </c>
@@ -500,7 +520,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>8</v>
       </c>
@@ -508,7 +528,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>8</v>
       </c>
@@ -516,7 +536,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>8</v>
       </c>
@@ -524,7 +544,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>8</v>
       </c>
@@ -532,7 +552,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>12</v>
       </c>
@@ -540,7 +560,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>12</v>
       </c>
@@ -548,7 +568,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>12</v>
       </c>
@@ -556,7 +576,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>12</v>
       </c>
@@ -564,7 +584,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>12</v>
       </c>
@@ -572,7 +592,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>12</v>
       </c>
@@ -580,7 +600,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>12</v>
       </c>
@@ -588,7 +608,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>27</v>
       </c>
@@ -596,7 +616,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>27</v>
       </c>
@@ -604,7 +624,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>27</v>
       </c>
@@ -612,7 +632,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>27</v>
       </c>
@@ -620,7 +640,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>27</v>
       </c>
@@ -628,7 +648,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>27</v>
       </c>
@@ -636,7 +656,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>28</v>
       </c>
@@ -644,7 +664,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>28</v>
       </c>
@@ -652,7 +672,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>28</v>
       </c>
@@ -660,7 +680,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>28</v>
       </c>
@@ -668,7 +688,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>28</v>
       </c>
@@ -676,7 +696,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>31</v>
       </c>
@@ -684,7 +704,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>31</v>
       </c>
@@ -692,7 +712,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>31</v>
       </c>
@@ -700,7 +720,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>31</v>
       </c>
@@ -708,7 +728,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>34</v>
       </c>
@@ -716,7 +736,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>34</v>
       </c>
@@ -724,7 +744,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>34</v>
       </c>
@@ -732,7 +752,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>45</v>
       </c>
@@ -740,7 +760,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>45</v>
       </c>
@@ -748,7 +768,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>58</v>
       </c>
@@ -756,7 +776,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>3</v>
       </c>
@@ -767,7 +787,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>3</v>
       </c>
@@ -778,7 +798,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>3</v>
       </c>
@@ -789,7 +809,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>3</v>
       </c>
@@ -800,7 +820,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>3</v>
       </c>
@@ -811,7 +831,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>3</v>
       </c>
@@ -822,7 +842,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>3</v>
       </c>
@@ -833,7 +853,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>3</v>
       </c>
@@ -844,7 +864,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>3</v>
       </c>
@@ -855,7 +875,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>3</v>
       </c>
@@ -866,7 +886,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>3</v>
       </c>
@@ -877,7 +897,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>3</v>
       </c>
@@ -888,7 +908,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>3</v>
       </c>
@@ -899,7 +919,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>3</v>
       </c>
@@ -910,7 +930,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>3</v>
       </c>
@@ -921,7 +941,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>3</v>
       </c>
@@ -932,7 +952,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>3</v>
       </c>
@@ -943,7 +963,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>3</v>
       </c>
@@ -954,7 +974,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>3</v>
       </c>
@@ -965,7 +985,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>3</v>
       </c>
@@ -976,7 +996,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>3</v>
       </c>
@@ -987,7 +1007,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>3</v>
       </c>
@@ -998,7 +1018,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>3</v>
       </c>
@@ -1009,7 +1029,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>3</v>
       </c>
@@ -1020,7 +1040,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>3</v>
       </c>
@@ -1031,7 +1051,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>3</v>
       </c>
@@ -1042,7 +1062,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>3</v>
       </c>
@@ -1053,7 +1073,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>3</v>
       </c>
@@ -1064,7 +1084,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>3</v>
       </c>
@@ -1075,7 +1095,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>3</v>
       </c>
@@ -1086,7 +1106,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>3</v>
       </c>
@@ -1097,7 +1117,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>3</v>
       </c>
@@ -1108,7 +1128,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>3</v>
       </c>
@@ -1119,7 +1139,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>3</v>
       </c>
@@ -1130,7 +1150,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>3</v>
       </c>
@@ -1141,7 +1161,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>3</v>
       </c>
@@ -1152,7 +1172,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>8</v>
       </c>
@@ -1163,7 +1183,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>8</v>
       </c>
@@ -1174,7 +1194,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>8</v>
       </c>
@@ -1185,7 +1205,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>8</v>
       </c>
@@ -1196,7 +1216,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>8</v>
       </c>
@@ -1207,7 +1227,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>8</v>
       </c>
@@ -1218,7 +1238,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>8</v>
       </c>
@@ -1229,7 +1249,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>8</v>
       </c>
@@ -1240,7 +1260,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>8</v>
       </c>
@@ -1251,7 +1271,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>8</v>
       </c>
@@ -1262,7 +1282,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>8</v>
       </c>
@@ -1273,7 +1293,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>8</v>
       </c>
@@ -1284,7 +1304,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>8</v>
       </c>
@@ -1295,7 +1315,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>8</v>
       </c>
@@ -1306,7 +1326,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>8</v>
       </c>
@@ -1317,7 +1337,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>8</v>
       </c>
@@ -1328,7 +1348,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>8</v>
       </c>
@@ -1339,7 +1359,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>8</v>
       </c>
@@ -1350,7 +1370,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>8</v>
       </c>
@@ -1361,7 +1381,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>8</v>
       </c>
@@ -1372,7 +1392,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>8</v>
       </c>
@@ -1383,7 +1403,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>8</v>
       </c>
@@ -1394,7 +1414,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>8</v>
       </c>
@@ -1405,7 +1425,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>8</v>
       </c>
@@ -1416,7 +1436,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>8</v>
       </c>
@@ -1427,7 +1447,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>8</v>
       </c>
@@ -1438,7 +1458,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>8</v>
       </c>
@@ -1449,7 +1469,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>8</v>
       </c>
@@ -1460,7 +1480,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>12</v>
       </c>
@@ -1471,7 +1491,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>12</v>
       </c>
@@ -1482,7 +1502,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>12</v>
       </c>
@@ -1493,7 +1513,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>12</v>
       </c>
@@ -1504,7 +1524,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>12</v>
       </c>
@@ -1515,7 +1535,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>12</v>
       </c>
@@ -1526,7 +1546,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>12</v>
       </c>
@@ -1537,7 +1557,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>12</v>
       </c>
@@ -1548,7 +1568,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>12</v>
       </c>
@@ -1559,7 +1579,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>12</v>
       </c>
@@ -1570,7 +1590,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>12</v>
       </c>
@@ -1581,7 +1601,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>12</v>
       </c>
@@ -1592,7 +1612,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>12</v>
       </c>
@@ -1603,7 +1623,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>12</v>
       </c>
@@ -1614,7 +1634,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>12</v>
       </c>
@@ -1625,7 +1645,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>12</v>
       </c>
@@ -1636,7 +1656,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>12</v>
       </c>
@@ -1647,7 +1667,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>12</v>
       </c>
@@ -1658,7 +1678,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>12</v>
       </c>
@@ -1669,7 +1689,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>12</v>
       </c>
@@ -1680,7 +1700,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>12</v>
       </c>
@@ -1691,7 +1711,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>27</v>
       </c>
@@ -1702,7 +1722,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>27</v>
       </c>
@@ -1713,7 +1733,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>27</v>
       </c>
@@ -1724,7 +1744,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>27</v>
       </c>
@@ -1735,7 +1755,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>27</v>
       </c>
@@ -1746,7 +1766,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>27</v>
       </c>
@@ -1757,7 +1777,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>27</v>
       </c>
@@ -1768,7 +1788,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>27</v>
       </c>
@@ -1779,7 +1799,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>27</v>
       </c>
@@ -1790,7 +1810,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>27</v>
       </c>
@@ -1801,7 +1821,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>27</v>
       </c>
@@ -1812,7 +1832,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>27</v>
       </c>
@@ -1823,7 +1843,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>27</v>
       </c>
@@ -1834,7 +1854,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>27</v>
       </c>
@@ -1845,7 +1865,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>27</v>
       </c>
@@ -1856,7 +1876,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>28</v>
       </c>
@@ -1867,7 +1887,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>28</v>
       </c>
@@ -1878,7 +1898,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>28</v>
       </c>
@@ -1889,7 +1909,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>28</v>
       </c>
@@ -1900,7 +1920,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>28</v>
       </c>
@@ -1911,7 +1931,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>28</v>
       </c>
@@ -1922,7 +1942,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>28</v>
       </c>
@@ -1933,7 +1953,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>28</v>
       </c>
@@ -1944,7 +1964,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>28</v>
       </c>
@@ -1955,7 +1975,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>28</v>
       </c>
@@ -1966,7 +1986,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>31</v>
       </c>
@@ -1977,7 +1997,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>31</v>
       </c>
@@ -1988,7 +2008,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>31</v>
       </c>
@@ -1999,7 +2019,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>31</v>
       </c>
@@ -2010,7 +2030,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>31</v>
       </c>
@@ -2021,7 +2041,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>31</v>
       </c>
@@ -2032,7 +2052,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>34</v>
       </c>
@@ -2043,7 +2063,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>34</v>
       </c>
@@ -2054,7 +2074,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>34</v>
       </c>
@@ -2065,7 +2085,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>45</v>
       </c>
@@ -2076,7 +2096,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>3</v>
       </c>
@@ -2090,7 +2110,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>3</v>
       </c>
@@ -2104,7 +2124,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>3</v>
       </c>
@@ -2118,7 +2138,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>3</v>
       </c>
@@ -2132,7 +2152,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>3</v>
       </c>
@@ -2146,7 +2166,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>3</v>
       </c>
@@ -2160,7 +2180,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>3</v>
       </c>
@@ -2174,7 +2194,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>3</v>
       </c>
@@ -2188,7 +2208,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>3</v>
       </c>
@@ -2202,7 +2222,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>3</v>
       </c>
@@ -2216,7 +2236,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>3</v>
       </c>
@@ -2230,7 +2250,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>3</v>
       </c>
@@ -2244,7 +2264,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>3</v>
       </c>
@@ -2258,7 +2278,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>3</v>
       </c>
@@ -2272,7 +2292,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>3</v>
       </c>
@@ -2286,7 +2306,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>3</v>
       </c>
@@ -2300,7 +2320,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>3</v>
       </c>
@@ -2314,7 +2334,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>3</v>
       </c>
@@ -2328,7 +2348,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>3</v>
       </c>
@@ -2342,7 +2362,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>3</v>
       </c>
@@ -2356,7 +2376,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>3</v>
       </c>
@@ -2370,7 +2390,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>3</v>
       </c>
@@ -2384,7 +2404,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>3</v>
       </c>
@@ -2398,7 +2418,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>3</v>
       </c>
@@ -2412,7 +2432,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>3</v>
       </c>
@@ -2426,7 +2446,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>3</v>
       </c>
@@ -2440,7 +2460,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>3</v>
       </c>
@@ -2454,7 +2474,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>3</v>
       </c>
@@ -2468,7 +2488,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>3</v>
       </c>
@@ -2482,7 +2502,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>3</v>
       </c>
@@ -2496,7 +2516,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>3</v>
       </c>
@@ -2510,7 +2530,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>3</v>
       </c>
@@ -2524,7 +2544,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>3</v>
       </c>
@@ -2538,7 +2558,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>3</v>
       </c>
@@ -2552,7 +2572,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>3</v>
       </c>
@@ -2566,7 +2586,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>3</v>
       </c>
@@ -2580,7 +2600,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>3</v>
       </c>
@@ -2594,7 +2614,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>3</v>
       </c>
@@ -2608,7 +2628,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>3</v>
       </c>
@@ -2622,7 +2642,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>3</v>
       </c>
@@ -2636,7 +2656,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>3</v>
       </c>
@@ -2650,7 +2670,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>3</v>
       </c>
@@ -2664,7 +2684,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>3</v>
       </c>
@@ -2678,7 +2698,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>3</v>
       </c>
@@ -2692,7 +2712,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>3</v>
       </c>
@@ -2706,7 +2726,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>3</v>
       </c>
@@ -2720,7 +2740,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>3</v>
       </c>
@@ -2734,7 +2754,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>3</v>
       </c>
@@ -2748,7 +2768,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>3</v>
       </c>
@@ -2762,7 +2782,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>3</v>
       </c>
@@ -2776,7 +2796,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>3</v>
       </c>
@@ -2790,7 +2810,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>3</v>
       </c>
@@ -2804,7 +2824,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>3</v>
       </c>
@@ -2818,7 +2838,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>3</v>
       </c>
@@ -2832,7 +2852,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>3</v>
       </c>
@@ -2846,7 +2866,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>3</v>
       </c>
@@ -2860,7 +2880,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>3</v>
       </c>
@@ -2874,7 +2894,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>3</v>
       </c>
@@ -2888,7 +2908,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>3</v>
       </c>
@@ -2902,7 +2922,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>3</v>
       </c>
@@ -2916,7 +2936,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>3</v>
       </c>
@@ -2930,7 +2950,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>3</v>
       </c>
@@ -2944,7 +2964,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>3</v>
       </c>
@@ -2958,7 +2978,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>3</v>
       </c>
@@ -2972,7 +2992,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>3</v>
       </c>
@@ -2986,7 +3006,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>3</v>
       </c>
@@ -3000,7 +3020,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>3</v>
       </c>
@@ -3014,7 +3034,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>3</v>
       </c>
@@ -3028,7 +3048,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>3</v>
       </c>
@@ -3042,7 +3062,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>3</v>
       </c>
@@ -3056,7 +3076,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>3</v>
       </c>
@@ -3070,7 +3090,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>3</v>
       </c>
@@ -3084,7 +3104,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>3</v>
       </c>
@@ -3098,7 +3118,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>3</v>
       </c>
@@ -3112,7 +3132,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>3</v>
       </c>
@@ -3126,7 +3146,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>3</v>
       </c>
@@ -3140,7 +3160,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>3</v>
       </c>
@@ -3154,7 +3174,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>3</v>
       </c>
@@ -3168,7 +3188,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>3</v>
       </c>
@@ -3182,7 +3202,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>3</v>
       </c>
@@ -3196,7 +3216,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>3</v>
       </c>
@@ -3210,7 +3230,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>3</v>
       </c>
@@ -3224,7 +3244,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>3</v>
       </c>
@@ -3238,7 +3258,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>3</v>
       </c>
@@ -3252,7 +3272,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>8</v>
       </c>
@@ -3266,7 +3286,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>8</v>
       </c>
@@ -3280,7 +3300,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>8</v>
       </c>
@@ -3294,7 +3314,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>8</v>
       </c>
@@ -3308,7 +3328,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>8</v>
       </c>
@@ -3322,7 +3342,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>8</v>
       </c>
@@ -3336,7 +3356,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>8</v>
       </c>
@@ -3350,7 +3370,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>8</v>
       </c>
@@ -3364,7 +3384,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>8</v>
       </c>
@@ -3378,7 +3398,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>8</v>
       </c>
@@ -3392,7 +3412,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>8</v>
       </c>
@@ -3406,7 +3426,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>8</v>
       </c>
@@ -3420,7 +3440,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>8</v>
       </c>
@@ -3434,7 +3454,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>8</v>
       </c>
@@ -3448,7 +3468,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>8</v>
       </c>
@@ -3462,7 +3482,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>8</v>
       </c>
@@ -3476,7 +3496,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>8</v>
       </c>
@@ -3490,7 +3510,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>8</v>
       </c>
@@ -3504,7 +3524,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>8</v>
       </c>
@@ -3518,7 +3538,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>8</v>
       </c>
@@ -3532,7 +3552,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>8</v>
       </c>
@@ -3546,7 +3566,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>8</v>
       </c>
@@ -3560,7 +3580,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>8</v>
       </c>
@@ -3574,7 +3594,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>8</v>
       </c>
@@ -3588,7 +3608,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>8</v>
       </c>
@@ -3602,7 +3622,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>8</v>
       </c>
@@ -3616,7 +3636,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>8</v>
       </c>
@@ -3630,7 +3650,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>8</v>
       </c>
@@ -3644,7 +3664,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>8</v>
       </c>
@@ -3658,7 +3678,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>8</v>
       </c>
@@ -3672,7 +3692,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>8</v>
       </c>
@@ -3686,7 +3706,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>8</v>
       </c>
@@ -3700,7 +3720,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>8</v>
       </c>
@@ -3714,7 +3734,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>8</v>
       </c>
@@ -3728,7 +3748,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>8</v>
       </c>
@@ -3742,7 +3762,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>8</v>
       </c>
@@ -3756,7 +3776,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>8</v>
       </c>
@@ -3770,7 +3790,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>8</v>
       </c>
@@ -3784,7 +3804,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>8</v>
       </c>
@@ -3798,7 +3818,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>8</v>
       </c>
@@ -3812,7 +3832,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>8</v>
       </c>
@@ -3826,7 +3846,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>8</v>
       </c>
@@ -3840,7 +3860,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>8</v>
       </c>
@@ -3854,7 +3874,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>8</v>
       </c>
@@ -3868,7 +3888,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>8</v>
       </c>
@@ -3882,7 +3902,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>8</v>
       </c>
@@ -3896,7 +3916,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>8</v>
       </c>
@@ -3910,7 +3930,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>8</v>
       </c>
@@ -3924,7 +3944,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>8</v>
       </c>
@@ -3938,7 +3958,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>8</v>
       </c>
@@ -3952,7 +3972,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>8</v>
       </c>
@@ -3966,7 +3986,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>8</v>
       </c>
@@ -3980,7 +4000,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>8</v>
       </c>
@@ -3994,7 +4014,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>8</v>
       </c>
@@ -4008,7 +4028,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>8</v>
       </c>
@@ -4022,7 +4042,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>8</v>
       </c>
@@ -4036,7 +4056,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>12</v>
       </c>
@@ -4050,7 +4070,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>12</v>
       </c>
@@ -4064,7 +4084,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>12</v>
       </c>
@@ -4078,7 +4098,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>12</v>
       </c>
@@ -4092,7 +4112,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>12</v>
       </c>
@@ -4106,7 +4126,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>12</v>
       </c>
@@ -4120,7 +4140,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>12</v>
       </c>
@@ -4134,7 +4154,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>12</v>
       </c>
@@ -4148,7 +4168,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>12</v>
       </c>
@@ -4162,7 +4182,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>12</v>
       </c>
@@ -4176,7 +4196,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>12</v>
       </c>
@@ -4190,7 +4210,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>12</v>
       </c>
@@ -4204,7 +4224,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>12</v>
       </c>
@@ -4218,7 +4238,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>12</v>
       </c>
@@ -4232,7 +4252,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>12</v>
       </c>
@@ -4246,7 +4266,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>12</v>
       </c>
@@ -4260,7 +4280,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>12</v>
       </c>
@@ -4274,7 +4294,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>12</v>
       </c>
@@ -4288,7 +4308,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>12</v>
       </c>
@@ -4302,7 +4322,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>12</v>
       </c>
@@ -4316,7 +4336,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>12</v>
       </c>
@@ -4330,7 +4350,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>12</v>
       </c>
@@ -4344,7 +4364,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>12</v>
       </c>
@@ -4358,7 +4378,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>12</v>
       </c>
@@ -4372,7 +4392,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>12</v>
       </c>
@@ -4386,7 +4406,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>12</v>
       </c>
@@ -4400,7 +4420,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>12</v>
       </c>
@@ -4414,7 +4434,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>12</v>
       </c>
@@ -4428,7 +4448,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>12</v>
       </c>
@@ -4442,7 +4462,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>12</v>
       </c>
@@ -4456,7 +4476,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>12</v>
       </c>
@@ -4470,7 +4490,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>12</v>
       </c>
@@ -4484,7 +4504,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>12</v>
       </c>
@@ -4498,7 +4518,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>12</v>
       </c>
@@ -4512,7 +4532,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>12</v>
       </c>
@@ -4526,7 +4546,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>27</v>
       </c>
@@ -4540,7 +4560,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>27</v>
       </c>
@@ -4554,7 +4574,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>27</v>
       </c>
@@ -4568,7 +4588,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>27</v>
       </c>
@@ -4582,7 +4602,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>27</v>
       </c>
@@ -4596,7 +4616,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>27</v>
       </c>
@@ -4610,7 +4630,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>27</v>
       </c>
@@ -4624,7 +4644,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>27</v>
       </c>
@@ -4638,7 +4658,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>27</v>
       </c>
@@ -4652,7 +4672,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>27</v>
       </c>
@@ -4666,7 +4686,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>27</v>
       </c>
@@ -4680,7 +4700,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>27</v>
       </c>
@@ -4694,7 +4714,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>27</v>
       </c>
@@ -4708,7 +4728,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>27</v>
       </c>
@@ -4722,7 +4742,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>27</v>
       </c>
@@ -4736,7 +4756,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>27</v>
       </c>
@@ -4750,7 +4770,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>27</v>
       </c>
@@ -4764,7 +4784,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>27</v>
       </c>
@@ -4778,7 +4798,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>27</v>
       </c>
@@ -4792,7 +4812,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>27</v>
       </c>
@@ -4806,7 +4826,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>28</v>
       </c>
@@ -4820,7 +4840,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>28</v>
       </c>
@@ -4834,7 +4854,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>28</v>
       </c>
@@ -4848,7 +4868,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>28</v>
       </c>
@@ -4862,7 +4882,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>28</v>
       </c>
@@ -4876,7 +4896,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>28</v>
       </c>
@@ -4890,7 +4910,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>28</v>
       </c>
@@ -4904,7 +4924,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>28</v>
       </c>
@@ -4918,7 +4938,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>28</v>
       </c>
@@ -4932,7 +4952,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>28</v>
       </c>
@@ -4946,7 +4966,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>31</v>
       </c>
@@ -4960,7 +4980,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>31</v>
       </c>
@@ -4974,7 +4994,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>31</v>
       </c>
@@ -4988,7 +5008,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>31</v>
       </c>
@@ -5002,7 +5022,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="385" spans="1:5">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>34</v>
       </c>
@@ -5016,7 +5036,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="386" spans="1:5">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>3</v>
       </c>
@@ -5033,7 +5053,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="387" spans="1:5">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>3</v>
       </c>
@@ -5050,7 +5070,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="388" spans="1:5">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>3</v>
       </c>
@@ -5067,7 +5087,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="389" spans="1:5">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>3</v>
       </c>
@@ -5084,7 +5104,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="390" spans="1:5">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>3</v>
       </c>
@@ -5101,7 +5121,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="391" spans="1:5">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>3</v>
       </c>
@@ -5118,7 +5138,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="392" spans="1:5">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>3</v>
       </c>
@@ -5135,7 +5155,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="393" spans="1:5">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>3</v>
       </c>
@@ -5152,7 +5172,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="394" spans="1:5">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>3</v>
       </c>
@@ -5169,7 +5189,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="395" spans="1:5">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>3</v>
       </c>
@@ -5186,7 +5206,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="396" spans="1:5">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>3</v>
       </c>
@@ -5203,7 +5223,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="397" spans="1:5">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>3</v>
       </c>
@@ -5220,7 +5240,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="398" spans="1:5">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>3</v>
       </c>
@@ -5237,7 +5257,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="399" spans="1:5">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>3</v>
       </c>
@@ -5254,7 +5274,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="400" spans="1:5">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>3</v>
       </c>
@@ -5271,7 +5291,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="401" spans="1:5">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>3</v>
       </c>
@@ -5288,7 +5308,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="402" spans="1:5">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>3</v>
       </c>
@@ -5305,7 +5325,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="403" spans="1:5">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>3</v>
       </c>
@@ -5322,7 +5342,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="404" spans="1:5">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>3</v>
       </c>
@@ -5339,7 +5359,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="405" spans="1:5">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>3</v>
       </c>
@@ -5356,7 +5376,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="406" spans="1:5">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>3</v>
       </c>
@@ -5373,7 +5393,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="407" spans="1:5">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>3</v>
       </c>
@@ -5390,7 +5410,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="408" spans="1:5">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>3</v>
       </c>
@@ -5407,7 +5427,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="409" spans="1:5">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>3</v>
       </c>
@@ -5424,7 +5444,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="410" spans="1:5">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>3</v>
       </c>
@@ -5441,7 +5461,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="411" spans="1:5">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>3</v>
       </c>
@@ -5458,7 +5478,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="412" spans="1:5">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>3</v>
       </c>
@@ -5475,7 +5495,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="413" spans="1:5">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>3</v>
       </c>
@@ -5492,7 +5512,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="414" spans="1:5">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>3</v>
       </c>
@@ -5509,7 +5529,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="415" spans="1:5">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>3</v>
       </c>
@@ -5526,7 +5546,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="416" spans="1:5">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>3</v>
       </c>
@@ -5543,7 +5563,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="417" spans="1:5">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>3</v>
       </c>
@@ -5560,7 +5580,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="418" spans="1:5">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>3</v>
       </c>
@@ -5577,7 +5597,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="419" spans="1:5">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>3</v>
       </c>
@@ -5594,7 +5614,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="420" spans="1:5">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>3</v>
       </c>
@@ -5611,7 +5631,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="421" spans="1:5">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>3</v>
       </c>
@@ -5628,7 +5648,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="422" spans="1:5">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>3</v>
       </c>
@@ -5645,7 +5665,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="423" spans="1:5">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>3</v>
       </c>
@@ -5662,7 +5682,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="424" spans="1:5">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>3</v>
       </c>
@@ -5679,7 +5699,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="425" spans="1:5">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>3</v>
       </c>
@@ -5696,7 +5716,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="426" spans="1:5">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>3</v>
       </c>
@@ -5713,7 +5733,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="427" spans="1:5">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>3</v>
       </c>
@@ -5730,7 +5750,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="428" spans="1:5">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>3</v>
       </c>
@@ -5747,7 +5767,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="429" spans="1:5">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>3</v>
       </c>
@@ -5764,7 +5784,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="430" spans="1:5">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>3</v>
       </c>
@@ -5781,7 +5801,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="431" spans="1:5">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>3</v>
       </c>
@@ -5798,7 +5818,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="432" spans="1:5">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>3</v>
       </c>
@@ -5815,7 +5835,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="433" spans="1:5">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>3</v>
       </c>
@@ -5832,7 +5852,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="434" spans="1:5">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>3</v>
       </c>
@@ -5849,7 +5869,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="435" spans="1:5">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>3</v>
       </c>
@@ -5866,7 +5886,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="436" spans="1:5">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>3</v>
       </c>
@@ -5883,7 +5903,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="437" spans="1:5">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>3</v>
       </c>
@@ -5900,7 +5920,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="438" spans="1:5">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>3</v>
       </c>
@@ -5917,7 +5937,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="439" spans="1:5">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>3</v>
       </c>
@@ -5934,7 +5954,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="440" spans="1:5">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>3</v>
       </c>
@@ -5951,7 +5971,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="441" spans="1:5">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>3</v>
       </c>
@@ -5968,7 +5988,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="442" spans="1:5">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>3</v>
       </c>
@@ -5985,7 +6005,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="443" spans="1:5">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>3</v>
       </c>
@@ -6002,7 +6022,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="444" spans="1:5">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>3</v>
       </c>
@@ -6019,7 +6039,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="445" spans="1:5">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>3</v>
       </c>
@@ -6036,7 +6056,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="446" spans="1:5">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>3</v>
       </c>
@@ -6053,7 +6073,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="447" spans="1:5">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>3</v>
       </c>
@@ -6070,7 +6090,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="448" spans="1:5">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>3</v>
       </c>
@@ -6087,7 +6107,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="449" spans="1:5">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>3</v>
       </c>
@@ -6104,7 +6124,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="450" spans="1:5">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>3</v>
       </c>
@@ -6121,7 +6141,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="451" spans="1:5">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>3</v>
       </c>
@@ -6138,7 +6158,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="452" spans="1:5">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>3</v>
       </c>
@@ -6155,7 +6175,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="453" spans="1:5">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>3</v>
       </c>
@@ -6172,7 +6192,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="454" spans="1:5">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>3</v>
       </c>
@@ -6189,7 +6209,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="455" spans="1:5">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>3</v>
       </c>
@@ -6206,7 +6226,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="456" spans="1:5">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>3</v>
       </c>
@@ -6223,7 +6243,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="457" spans="1:5">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>3</v>
       </c>
@@ -6240,7 +6260,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="458" spans="1:5">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>3</v>
       </c>
@@ -6257,7 +6277,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="459" spans="1:5">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>3</v>
       </c>
@@ -6274,7 +6294,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="460" spans="1:5">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>3</v>
       </c>
@@ -6291,7 +6311,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="461" spans="1:5">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>3</v>
       </c>
@@ -6308,7 +6328,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="462" spans="1:5">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>3</v>
       </c>
@@ -6325,7 +6345,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="463" spans="1:5">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>3</v>
       </c>
@@ -6342,7 +6362,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="464" spans="1:5">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>3</v>
       </c>
@@ -6359,7 +6379,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="465" spans="1:5">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>3</v>
       </c>
@@ -6376,7 +6396,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="466" spans="1:5">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>3</v>
       </c>
@@ -6393,7 +6413,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="467" spans="1:5">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>3</v>
       </c>
@@ -6410,7 +6430,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="468" spans="1:5">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>3</v>
       </c>
@@ -6427,7 +6447,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="469" spans="1:5">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>3</v>
       </c>
@@ -6444,7 +6464,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="470" spans="1:5">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>3</v>
       </c>
@@ -6461,7 +6481,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="471" spans="1:5">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>3</v>
       </c>
@@ -6478,7 +6498,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="472" spans="1:5">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>3</v>
       </c>
@@ -6495,7 +6515,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="473" spans="1:5">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>3</v>
       </c>
@@ -6512,7 +6532,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="474" spans="1:5">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>3</v>
       </c>
@@ -6529,7 +6549,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="475" spans="1:5">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>3</v>
       </c>
@@ -6546,7 +6566,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="476" spans="1:5">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>3</v>
       </c>
@@ -6563,7 +6583,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="477" spans="1:5">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>3</v>
       </c>
@@ -6580,7 +6600,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="478" spans="1:5">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>3</v>
       </c>
@@ -6597,7 +6617,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="479" spans="1:5">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>3</v>
       </c>
@@ -6614,7 +6634,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="480" spans="1:5">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>3</v>
       </c>
@@ -6631,7 +6651,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="481" spans="1:5">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>3</v>
       </c>
@@ -6648,7 +6668,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="482" spans="1:5">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>3</v>
       </c>
@@ -6665,7 +6685,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="483" spans="1:5">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>3</v>
       </c>
@@ -6682,7 +6702,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="484" spans="1:5">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>3</v>
       </c>
@@ -6699,7 +6719,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="485" spans="1:5">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>3</v>
       </c>
@@ -6716,7 +6736,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="486" spans="1:5">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>3</v>
       </c>
@@ -6733,7 +6753,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="487" spans="1:5">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>3</v>
       </c>
@@ -6750,7 +6770,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="488" spans="1:5">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>3</v>
       </c>
@@ -6767,7 +6787,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="489" spans="1:5">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>3</v>
       </c>
@@ -6784,7 +6804,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="490" spans="1:5">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>3</v>
       </c>
@@ -6801,7 +6821,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="491" spans="1:5">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>3</v>
       </c>
@@ -6818,7 +6838,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="492" spans="1:5">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>3</v>
       </c>
@@ -6835,7 +6855,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="493" spans="1:5">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>3</v>
       </c>
@@ -6852,7 +6872,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="494" spans="1:5">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>3</v>
       </c>
@@ -6869,7 +6889,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="495" spans="1:5">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>3</v>
       </c>
@@ -6886,7 +6906,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="496" spans="1:5">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>3</v>
       </c>
@@ -6903,7 +6923,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="497" spans="1:5">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>3</v>
       </c>
@@ -6920,7 +6940,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="498" spans="1:5">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>3</v>
       </c>
@@ -6937,7 +6957,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="499" spans="1:5">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>3</v>
       </c>
@@ -6954,7 +6974,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="500" spans="1:5">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>3</v>
       </c>
@@ -6971,7 +6991,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="501" spans="1:5">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>3</v>
       </c>
@@ -6988,7 +7008,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="502" spans="1:5">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>3</v>
       </c>
@@ -7005,7 +7025,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="503" spans="1:5">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>3</v>
       </c>
@@ -7022,7 +7042,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="504" spans="1:5">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>3</v>
       </c>
@@ -7039,7 +7059,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="505" spans="1:5">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>3</v>
       </c>
@@ -7056,7 +7076,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="506" spans="1:5">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>3</v>
       </c>
@@ -7073,7 +7093,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="507" spans="1:5">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>3</v>
       </c>
@@ -7090,7 +7110,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="508" spans="1:5">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>3</v>
       </c>
@@ -7107,7 +7127,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="509" spans="1:5">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>3</v>
       </c>
@@ -7124,7 +7144,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="510" spans="1:5">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>3</v>
       </c>
@@ -7141,7 +7161,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="511" spans="1:5">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>3</v>
       </c>
@@ -7158,7 +7178,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="512" spans="1:5">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>8</v>
       </c>
@@ -7175,7 +7195,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="513" spans="1:5">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>8</v>
       </c>
@@ -7192,7 +7212,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="514" spans="1:5">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>8</v>
       </c>
@@ -7209,7 +7229,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="515" spans="1:5">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>8</v>
       </c>
@@ -7226,7 +7246,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="516" spans="1:5">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>8</v>
       </c>
@@ -7243,7 +7263,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="517" spans="1:5">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>8</v>
       </c>
@@ -7260,7 +7280,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="518" spans="1:5">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>8</v>
       </c>
@@ -7277,7 +7297,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="519" spans="1:5">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>8</v>
       </c>
@@ -7294,7 +7314,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="520" spans="1:5">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>8</v>
       </c>
@@ -7311,7 +7331,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="521" spans="1:5">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>8</v>
       </c>
@@ -7328,7 +7348,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="522" spans="1:5">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>8</v>
       </c>
@@ -7345,7 +7365,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="523" spans="1:5">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>8</v>
       </c>
@@ -7362,7 +7382,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="524" spans="1:5">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>8</v>
       </c>
@@ -7379,7 +7399,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="525" spans="1:5">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>8</v>
       </c>
@@ -7396,7 +7416,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="526" spans="1:5">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>8</v>
       </c>
@@ -7413,7 +7433,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="527" spans="1:5">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>8</v>
       </c>
@@ -7430,7 +7450,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="528" spans="1:5">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>8</v>
       </c>
@@ -7447,7 +7467,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="529" spans="1:5">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>8</v>
       </c>
@@ -7464,7 +7484,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="530" spans="1:5">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>8</v>
       </c>
@@ -7481,7 +7501,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="531" spans="1:5">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>8</v>
       </c>
@@ -7498,7 +7518,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="532" spans="1:5">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>8</v>
       </c>
@@ -7515,7 +7535,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="533" spans="1:5">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>8</v>
       </c>
@@ -7532,7 +7552,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="534" spans="1:5">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>8</v>
       </c>
@@ -7549,7 +7569,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="535" spans="1:5">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>8</v>
       </c>
@@ -7566,7 +7586,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="536" spans="1:5">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>8</v>
       </c>
@@ -7583,7 +7603,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="537" spans="1:5">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>8</v>
       </c>
@@ -7600,7 +7620,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="538" spans="1:5">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>8</v>
       </c>
@@ -7617,7 +7637,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="539" spans="1:5">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>8</v>
       </c>
@@ -7634,7 +7654,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="540" spans="1:5">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>8</v>
       </c>
@@ -7651,7 +7671,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="541" spans="1:5">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>8</v>
       </c>
@@ -7668,7 +7688,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="542" spans="1:5">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>8</v>
       </c>
@@ -7685,7 +7705,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="543" spans="1:5">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>8</v>
       </c>
@@ -7702,7 +7722,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="544" spans="1:5">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>8</v>
       </c>
@@ -7719,7 +7739,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="545" spans="1:5">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>8</v>
       </c>
@@ -7736,7 +7756,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="546" spans="1:5">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>8</v>
       </c>
@@ -7753,7 +7773,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="547" spans="1:5">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>8</v>
       </c>
@@ -7770,7 +7790,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="548" spans="1:5">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>8</v>
       </c>
@@ -7787,7 +7807,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="549" spans="1:5">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>8</v>
       </c>
@@ -7804,7 +7824,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="550" spans="1:5">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>8</v>
       </c>
@@ -7821,7 +7841,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="551" spans="1:5">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>8</v>
       </c>
@@ -7838,7 +7858,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="552" spans="1:5">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>8</v>
       </c>
@@ -7855,7 +7875,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="553" spans="1:5">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>8</v>
       </c>
@@ -7872,7 +7892,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="554" spans="1:5">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>8</v>
       </c>
@@ -7889,7 +7909,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="555" spans="1:5">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>8</v>
       </c>
@@ -7906,7 +7926,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="556" spans="1:5">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>8</v>
       </c>
@@ -7923,7 +7943,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="557" spans="1:5">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>8</v>
       </c>
@@ -7940,7 +7960,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="558" spans="1:5">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>8</v>
       </c>
@@ -7957,7 +7977,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="559" spans="1:5">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>8</v>
       </c>
@@ -7974,7 +7994,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="560" spans="1:5">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>8</v>
       </c>
@@ -7991,7 +8011,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="561" spans="1:5">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>8</v>
       </c>
@@ -8008,7 +8028,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="562" spans="1:5">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>8</v>
       </c>
@@ -8025,7 +8045,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="563" spans="1:5">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>8</v>
       </c>
@@ -8042,7 +8062,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="564" spans="1:5">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>8</v>
       </c>
@@ -8059,7 +8079,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="565" spans="1:5">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>8</v>
       </c>
@@ -8076,7 +8096,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="566" spans="1:5">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>8</v>
       </c>
@@ -8093,7 +8113,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="567" spans="1:5">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>8</v>
       </c>
@@ -8110,7 +8130,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="568" spans="1:5">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>8</v>
       </c>
@@ -8127,7 +8147,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="569" spans="1:5">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>8</v>
       </c>
@@ -8144,7 +8164,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="570" spans="1:5">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>8</v>
       </c>
@@ -8161,7 +8181,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="571" spans="1:5">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>8</v>
       </c>
@@ -8178,7 +8198,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="572" spans="1:5">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>8</v>
       </c>
@@ -8195,7 +8215,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="573" spans="1:5">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>8</v>
       </c>
@@ -8212,7 +8232,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="574" spans="1:5">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>8</v>
       </c>
@@ -8229,7 +8249,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="575" spans="1:5">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>8</v>
       </c>
@@ -8246,7 +8266,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="576" spans="1:5">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>8</v>
       </c>
@@ -8263,7 +8283,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="577" spans="1:5">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>8</v>
       </c>
@@ -8280,7 +8300,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="578" spans="1:5">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>8</v>
       </c>
@@ -8297,7 +8317,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="579" spans="1:5">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>8</v>
       </c>
@@ -8314,7 +8334,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="580" spans="1:5">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>8</v>
       </c>
@@ -8331,7 +8351,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="581" spans="1:5">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>8</v>
       </c>
@@ -8348,7 +8368,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="582" spans="1:5">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>12</v>
       </c>
@@ -8365,7 +8385,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="583" spans="1:5">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>12</v>
       </c>
@@ -8382,7 +8402,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="584" spans="1:5">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>12</v>
       </c>
@@ -8399,7 +8419,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="585" spans="1:5">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>12</v>
       </c>
@@ -8416,7 +8436,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="586" spans="1:5">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>12</v>
       </c>
@@ -8433,7 +8453,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="587" spans="1:5">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>12</v>
       </c>
@@ -8450,7 +8470,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="588" spans="1:5">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>12</v>
       </c>
@@ -8467,7 +8487,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="589" spans="1:5">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>12</v>
       </c>
@@ -8484,7 +8504,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="590" spans="1:5">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>12</v>
       </c>
@@ -8501,7 +8521,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="591" spans="1:5">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>12</v>
       </c>
@@ -8518,7 +8538,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="592" spans="1:5">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>12</v>
       </c>
@@ -8535,7 +8555,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="593" spans="1:5">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>12</v>
       </c>
@@ -8552,7 +8572,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="594" spans="1:5">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>12</v>
       </c>
@@ -8569,7 +8589,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="595" spans="1:5">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>12</v>
       </c>
@@ -8586,7 +8606,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="596" spans="1:5">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>12</v>
       </c>
@@ -8603,7 +8623,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="597" spans="1:5">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>12</v>
       </c>
@@ -8620,7 +8640,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="598" spans="1:5">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>12</v>
       </c>
@@ -8637,7 +8657,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="599" spans="1:5">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>12</v>
       </c>
@@ -8654,7 +8674,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="600" spans="1:5">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>12</v>
       </c>
@@ -8671,7 +8691,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="601" spans="1:5">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>12</v>
       </c>
@@ -8688,7 +8708,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="602" spans="1:5">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>12</v>
       </c>
@@ -8705,7 +8725,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="603" spans="1:5">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>12</v>
       </c>
@@ -8722,7 +8742,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="604" spans="1:5">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>12</v>
       </c>
@@ -8739,7 +8759,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="605" spans="1:5">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>12</v>
       </c>
@@ -8756,7 +8776,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="606" spans="1:5">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>12</v>
       </c>
@@ -8773,7 +8793,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="607" spans="1:5">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A607">
         <v>12</v>
       </c>
@@ -8790,7 +8810,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="608" spans="1:5">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>12</v>
       </c>
@@ -8807,7 +8827,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="609" spans="1:5">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A609">
         <v>12</v>
       </c>
@@ -8824,7 +8844,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="610" spans="1:5">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A610">
         <v>12</v>
       </c>
@@ -8841,7 +8861,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="611" spans="1:5">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A611">
         <v>12</v>
       </c>
@@ -8858,7 +8878,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="612" spans="1:5">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A612">
         <v>12</v>
       </c>
@@ -8875,7 +8895,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="613" spans="1:5">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A613">
         <v>12</v>
       </c>
@@ -8892,7 +8912,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="614" spans="1:5">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A614">
         <v>12</v>
       </c>
@@ -8909,7 +8929,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="615" spans="1:5">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A615">
         <v>12</v>
       </c>
@@ -8926,7 +8946,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="616" spans="1:5">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A616">
         <v>12</v>
       </c>
@@ -8943,7 +8963,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="617" spans="1:5">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A617">
         <v>27</v>
       </c>
@@ -8960,7 +8980,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="618" spans="1:5">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A618">
         <v>27</v>
       </c>
@@ -8977,7 +8997,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="619" spans="1:5">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A619">
         <v>27</v>
       </c>
@@ -8994,7 +9014,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="620" spans="1:5">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A620">
         <v>27</v>
       </c>
@@ -9011,7 +9031,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="621" spans="1:5">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A621">
         <v>27</v>
       </c>
@@ -9028,7 +9048,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="622" spans="1:5">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>27</v>
       </c>
@@ -9045,7 +9065,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="623" spans="1:5">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A623">
         <v>27</v>
       </c>
@@ -9062,7 +9082,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="624" spans="1:5">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A624">
         <v>27</v>
       </c>
@@ -9079,7 +9099,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="625" spans="1:6">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A625">
         <v>27</v>
       </c>
@@ -9096,7 +9116,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="626" spans="1:6">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A626">
         <v>27</v>
       </c>
@@ -9113,7 +9133,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="627" spans="1:6">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A627">
         <v>27</v>
       </c>
@@ -9130,7 +9150,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="628" spans="1:6">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A628">
         <v>27</v>
       </c>
@@ -9147,7 +9167,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="629" spans="1:6">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A629">
         <v>27</v>
       </c>
@@ -9164,7 +9184,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="630" spans="1:6">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A630">
         <v>27</v>
       </c>
@@ -9181,7 +9201,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="631" spans="1:6">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A631">
         <v>27</v>
       </c>
@@ -9198,7 +9218,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="632" spans="1:6">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A632">
         <v>28</v>
       </c>
@@ -9215,7 +9235,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="633" spans="1:6">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A633">
         <v>28</v>
       </c>
@@ -9232,7 +9252,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="634" spans="1:6">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A634">
         <v>28</v>
       </c>
@@ -9249,7 +9269,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="635" spans="1:6">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A635">
         <v>28</v>
       </c>
@@ -9266,7 +9286,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="636" spans="1:6">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A636">
         <v>28</v>
       </c>
@@ -9283,7 +9303,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="637" spans="1:6">
+    <row r="637" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A637">
         <v>31</v>
       </c>
@@ -9300,7 +9320,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="638" spans="1:6">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A638">
         <v>3</v>
       </c>
@@ -9320,7 +9340,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="639" spans="1:6">
+    <row r="639" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A639">
         <v>3</v>
       </c>
@@ -9340,7 +9360,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="640" spans="1:6">
+    <row r="640" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A640">
         <v>3</v>
       </c>
@@ -9360,7 +9380,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="641" spans="1:6">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A641">
         <v>3</v>
       </c>
@@ -9380,7 +9400,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="642" spans="1:6">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A642">
         <v>3</v>
       </c>
@@ -9400,7 +9420,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="643" spans="1:6">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A643">
         <v>3</v>
       </c>
@@ -9420,7 +9440,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="644" spans="1:6">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A644">
         <v>3</v>
       </c>
@@ -9440,7 +9460,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="645" spans="1:6">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A645">
         <v>3</v>
       </c>
@@ -9460,7 +9480,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="646" spans="1:6">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A646">
         <v>3</v>
       </c>
@@ -9480,7 +9500,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="647" spans="1:6">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A647">
         <v>3</v>
       </c>
@@ -9500,7 +9520,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="648" spans="1:6">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A648">
         <v>3</v>
       </c>
@@ -9520,7 +9540,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="649" spans="1:6">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A649">
         <v>3</v>
       </c>
@@ -9540,7 +9560,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="650" spans="1:6">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A650">
         <v>3</v>
       </c>
@@ -9560,7 +9580,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="651" spans="1:6">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A651">
         <v>3</v>
       </c>
@@ -9580,7 +9600,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="652" spans="1:6">
+    <row r="652" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A652">
         <v>3</v>
       </c>
@@ -9600,7 +9620,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="653" spans="1:6">
+    <row r="653" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A653">
         <v>3</v>
       </c>
@@ -9620,7 +9640,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="654" spans="1:6">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A654">
         <v>3</v>
       </c>
@@ -9640,7 +9660,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="655" spans="1:6">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A655">
         <v>3</v>
       </c>
@@ -9660,7 +9680,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="656" spans="1:6">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A656">
         <v>3</v>
       </c>
@@ -9680,7 +9700,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="657" spans="1:6">
+    <row r="657" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A657">
         <v>3</v>
       </c>
@@ -9700,7 +9720,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="658" spans="1:6">
+    <row r="658" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A658">
         <v>3</v>
       </c>
@@ -9720,7 +9740,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="659" spans="1:6">
+    <row r="659" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A659">
         <v>3</v>
       </c>
@@ -9740,7 +9760,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="660" spans="1:6">
+    <row r="660" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A660">
         <v>3</v>
       </c>
@@ -9760,7 +9780,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="661" spans="1:6">
+    <row r="661" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A661">
         <v>3</v>
       </c>
@@ -9780,7 +9800,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="662" spans="1:6">
+    <row r="662" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A662">
         <v>3</v>
       </c>
@@ -9800,7 +9820,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="663" spans="1:6">
+    <row r="663" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A663">
         <v>3</v>
       </c>
@@ -9820,7 +9840,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="664" spans="1:6">
+    <row r="664" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A664">
         <v>3</v>
       </c>
@@ -9840,7 +9860,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="665" spans="1:6">
+    <row r="665" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A665">
         <v>3</v>
       </c>
@@ -9860,7 +9880,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="666" spans="1:6">
+    <row r="666" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A666">
         <v>3</v>
       </c>
@@ -9880,7 +9900,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="667" spans="1:6">
+    <row r="667" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A667">
         <v>3</v>
       </c>
@@ -9900,7 +9920,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="668" spans="1:6">
+    <row r="668" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A668">
         <v>3</v>
       </c>
@@ -9920,7 +9940,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="669" spans="1:6">
+    <row r="669" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A669">
         <v>3</v>
       </c>
@@ -9940,7 +9960,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="670" spans="1:6">
+    <row r="670" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A670">
         <v>3</v>
       </c>
@@ -9960,7 +9980,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="671" spans="1:6">
+    <row r="671" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A671">
         <v>3</v>
       </c>
@@ -9980,7 +10000,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="672" spans="1:6">
+    <row r="672" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A672">
         <v>3</v>
       </c>
@@ -10000,7 +10020,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="673" spans="1:6">
+    <row r="673" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A673">
         <v>3</v>
       </c>
@@ -10020,7 +10040,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="674" spans="1:6">
+    <row r="674" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A674">
         <v>3</v>
       </c>
@@ -10040,7 +10060,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="675" spans="1:6">
+    <row r="675" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A675">
         <v>3</v>
       </c>
@@ -10060,7 +10080,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="676" spans="1:6">
+    <row r="676" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A676">
         <v>3</v>
       </c>
@@ -10080,7 +10100,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="677" spans="1:6">
+    <row r="677" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A677">
         <v>3</v>
       </c>
@@ -10100,7 +10120,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="678" spans="1:6">
+    <row r="678" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A678">
         <v>3</v>
       </c>
@@ -10120,7 +10140,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="679" spans="1:6">
+    <row r="679" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A679">
         <v>3</v>
       </c>
@@ -10140,7 +10160,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="680" spans="1:6">
+    <row r="680" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A680">
         <v>3</v>
       </c>
@@ -10160,7 +10180,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="681" spans="1:6">
+    <row r="681" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A681">
         <v>3</v>
       </c>
@@ -10180,7 +10200,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="682" spans="1:6">
+    <row r="682" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A682">
         <v>3</v>
       </c>
@@ -10200,7 +10220,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="683" spans="1:6">
+    <row r="683" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A683">
         <v>3</v>
       </c>
@@ -10220,7 +10240,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="684" spans="1:6">
+    <row r="684" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A684">
         <v>3</v>
       </c>
@@ -10240,7 +10260,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="685" spans="1:6">
+    <row r="685" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A685">
         <v>3</v>
       </c>
@@ -10260,7 +10280,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="686" spans="1:6">
+    <row r="686" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A686">
         <v>3</v>
       </c>
@@ -10280,7 +10300,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="687" spans="1:6">
+    <row r="687" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A687">
         <v>3</v>
       </c>
@@ -10300,7 +10320,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="688" spans="1:6">
+    <row r="688" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A688">
         <v>3</v>
       </c>
@@ -10320,7 +10340,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="689" spans="1:6">
+    <row r="689" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A689">
         <v>3</v>
       </c>
@@ -10340,7 +10360,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="690" spans="1:6">
+    <row r="690" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A690">
         <v>3</v>
       </c>
@@ -10360,7 +10380,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="691" spans="1:6">
+    <row r="691" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A691">
         <v>3</v>
       </c>
@@ -10380,7 +10400,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="692" spans="1:6">
+    <row r="692" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A692">
         <v>3</v>
       </c>
@@ -10400,7 +10420,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="693" spans="1:6">
+    <row r="693" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A693">
         <v>3</v>
       </c>
@@ -10420,7 +10440,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="694" spans="1:6">
+    <row r="694" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A694">
         <v>3</v>
       </c>
@@ -10440,7 +10460,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="695" spans="1:6">
+    <row r="695" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A695">
         <v>3</v>
       </c>
@@ -10460,7 +10480,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="696" spans="1:6">
+    <row r="696" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A696">
         <v>3</v>
       </c>
@@ -10480,7 +10500,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="697" spans="1:6">
+    <row r="697" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A697">
         <v>3</v>
       </c>
@@ -10500,7 +10520,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="698" spans="1:6">
+    <row r="698" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A698">
         <v>3</v>
       </c>
@@ -10520,7 +10540,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="699" spans="1:6">
+    <row r="699" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A699">
         <v>3</v>
       </c>
@@ -10540,7 +10560,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="700" spans="1:6">
+    <row r="700" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A700">
         <v>3</v>
       </c>
@@ -10560,7 +10580,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="701" spans="1:6">
+    <row r="701" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A701">
         <v>3</v>
       </c>
@@ -10580,7 +10600,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="702" spans="1:6">
+    <row r="702" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A702">
         <v>3</v>
       </c>
@@ -10600,7 +10620,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="703" spans="1:6">
+    <row r="703" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A703">
         <v>3</v>
       </c>
@@ -10620,7 +10640,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="704" spans="1:6">
+    <row r="704" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A704">
         <v>3</v>
       </c>
@@ -10640,7 +10660,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="705" spans="1:6">
+    <row r="705" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A705">
         <v>3</v>
       </c>
@@ -10660,7 +10680,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="706" spans="1:6">
+    <row r="706" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A706">
         <v>3</v>
       </c>
@@ -10680,7 +10700,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="707" spans="1:6">
+    <row r="707" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A707">
         <v>3</v>
       </c>
@@ -10700,7 +10720,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="708" spans="1:6">
+    <row r="708" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A708">
         <v>3</v>
       </c>
@@ -10720,7 +10740,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="709" spans="1:6">
+    <row r="709" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A709">
         <v>3</v>
       </c>
@@ -10740,7 +10760,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="710" spans="1:6">
+    <row r="710" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A710">
         <v>3</v>
       </c>
@@ -10760,7 +10780,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="711" spans="1:6">
+    <row r="711" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A711">
         <v>3</v>
       </c>
@@ -10780,7 +10800,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="712" spans="1:6">
+    <row r="712" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A712">
         <v>3</v>
       </c>
@@ -10800,7 +10820,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="713" spans="1:6">
+    <row r="713" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A713">
         <v>3</v>
       </c>
@@ -10820,7 +10840,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="714" spans="1:6">
+    <row r="714" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A714">
         <v>3</v>
       </c>
@@ -10840,7 +10860,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="715" spans="1:6">
+    <row r="715" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A715">
         <v>3</v>
       </c>
@@ -10860,7 +10880,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="716" spans="1:6">
+    <row r="716" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A716">
         <v>3</v>
       </c>
@@ -10880,7 +10900,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="717" spans="1:6">
+    <row r="717" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A717">
         <v>3</v>
       </c>
@@ -10900,7 +10920,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="718" spans="1:6">
+    <row r="718" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A718">
         <v>3</v>
       </c>
@@ -10920,7 +10940,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="719" spans="1:6">
+    <row r="719" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A719">
         <v>3</v>
       </c>
@@ -10940,7 +10960,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="720" spans="1:6">
+    <row r="720" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A720">
         <v>3</v>
       </c>
@@ -10960,7 +10980,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="721" spans="1:6">
+    <row r="721" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A721">
         <v>3</v>
       </c>
@@ -10980,7 +11000,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="722" spans="1:6">
+    <row r="722" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A722">
         <v>3</v>
       </c>
@@ -11000,7 +11020,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="723" spans="1:6">
+    <row r="723" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A723">
         <v>3</v>
       </c>
@@ -11020,7 +11040,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="724" spans="1:6">
+    <row r="724" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A724">
         <v>3</v>
       </c>
@@ -11040,7 +11060,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="725" spans="1:6">
+    <row r="725" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A725">
         <v>3</v>
       </c>
@@ -11060,7 +11080,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="726" spans="1:6">
+    <row r="726" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A726">
         <v>3</v>
       </c>
@@ -11080,7 +11100,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="727" spans="1:6">
+    <row r="727" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A727">
         <v>3</v>
       </c>
@@ -11100,7 +11120,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="728" spans="1:6">
+    <row r="728" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A728">
         <v>3</v>
       </c>
@@ -11120,7 +11140,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="729" spans="1:6">
+    <row r="729" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A729">
         <v>3</v>
       </c>
@@ -11140,7 +11160,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="730" spans="1:6">
+    <row r="730" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A730">
         <v>3</v>
       </c>
@@ -11160,7 +11180,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="731" spans="1:6">
+    <row r="731" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A731">
         <v>3</v>
       </c>
@@ -11180,7 +11200,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="732" spans="1:6">
+    <row r="732" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A732">
         <v>3</v>
       </c>
@@ -11200,7 +11220,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="733" spans="1:6">
+    <row r="733" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A733">
         <v>3</v>
       </c>
@@ -11220,7 +11240,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="734" spans="1:6">
+    <row r="734" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A734">
         <v>3</v>
       </c>
@@ -11240,7 +11260,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="735" spans="1:6">
+    <row r="735" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A735">
         <v>3</v>
       </c>
@@ -11260,7 +11280,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="736" spans="1:6">
+    <row r="736" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A736">
         <v>3</v>
       </c>
@@ -11280,7 +11300,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="737" spans="1:6">
+    <row r="737" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A737">
         <v>3</v>
       </c>
@@ -11300,7 +11320,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="738" spans="1:6">
+    <row r="738" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A738">
         <v>3</v>
       </c>
@@ -11320,7 +11340,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="739" spans="1:6">
+    <row r="739" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A739">
         <v>3</v>
       </c>
@@ -11340,7 +11360,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="740" spans="1:6">
+    <row r="740" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A740">
         <v>3</v>
       </c>
@@ -11360,7 +11380,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="741" spans="1:6">
+    <row r="741" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A741">
         <v>3</v>
       </c>
@@ -11380,7 +11400,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="742" spans="1:6">
+    <row r="742" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A742">
         <v>3</v>
       </c>
@@ -11400,7 +11420,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="743" spans="1:6">
+    <row r="743" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A743">
         <v>3</v>
       </c>
@@ -11420,7 +11440,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="744" spans="1:6">
+    <row r="744" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A744">
         <v>3</v>
       </c>
@@ -11440,7 +11460,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="745" spans="1:6">
+    <row r="745" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A745">
         <v>3</v>
       </c>
@@ -11460,7 +11480,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="746" spans="1:6">
+    <row r="746" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A746">
         <v>3</v>
       </c>
@@ -11480,7 +11500,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="747" spans="1:6">
+    <row r="747" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A747">
         <v>3</v>
       </c>
@@ -11500,7 +11520,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="748" spans="1:6">
+    <row r="748" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A748">
         <v>3</v>
       </c>
@@ -11520,7 +11540,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="749" spans="1:6">
+    <row r="749" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A749">
         <v>3</v>
       </c>
@@ -11540,7 +11560,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="750" spans="1:6">
+    <row r="750" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A750">
         <v>3</v>
       </c>
@@ -11560,7 +11580,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="751" spans="1:6">
+    <row r="751" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A751">
         <v>3</v>
       </c>
@@ -11580,7 +11600,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="752" spans="1:6">
+    <row r="752" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A752">
         <v>3</v>
       </c>
@@ -11600,7 +11620,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="753" spans="1:6">
+    <row r="753" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A753">
         <v>3</v>
       </c>
@@ -11620,7 +11640,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="754" spans="1:6">
+    <row r="754" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A754">
         <v>3</v>
       </c>
@@ -11640,7 +11660,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="755" spans="1:6">
+    <row r="755" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A755">
         <v>3</v>
       </c>
@@ -11660,7 +11680,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="756" spans="1:6">
+    <row r="756" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A756">
         <v>3</v>
       </c>
@@ -11680,7 +11700,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="757" spans="1:6">
+    <row r="757" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A757">
         <v>3</v>
       </c>
@@ -11700,7 +11720,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="758" spans="1:6">
+    <row r="758" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A758">
         <v>3</v>
       </c>
@@ -11720,7 +11740,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="759" spans="1:6">
+    <row r="759" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A759">
         <v>3</v>
       </c>
@@ -11740,7 +11760,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="760" spans="1:6">
+    <row r="760" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A760">
         <v>3</v>
       </c>
@@ -11760,7 +11780,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="761" spans="1:6">
+    <row r="761" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A761">
         <v>3</v>
       </c>
@@ -11780,7 +11800,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="762" spans="1:6">
+    <row r="762" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A762">
         <v>3</v>
       </c>
@@ -11800,7 +11820,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="763" spans="1:6">
+    <row r="763" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A763">
         <v>3</v>
       </c>
@@ -11820,7 +11840,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="764" spans="1:6">
+    <row r="764" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A764">
         <v>8</v>
       </c>
@@ -11840,7 +11860,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="765" spans="1:6">
+    <row r="765" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A765">
         <v>8</v>
       </c>
@@ -11860,7 +11880,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="766" spans="1:6">
+    <row r="766" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A766">
         <v>8</v>
       </c>
@@ -11880,7 +11900,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="767" spans="1:6">
+    <row r="767" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A767">
         <v>8</v>
       </c>
@@ -11900,7 +11920,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="768" spans="1:6">
+    <row r="768" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A768">
         <v>8</v>
       </c>
@@ -11920,7 +11940,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="769" spans="1:6">
+    <row r="769" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A769">
         <v>8</v>
       </c>
@@ -11940,7 +11960,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="770" spans="1:6">
+    <row r="770" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A770">
         <v>8</v>
       </c>
@@ -11960,7 +11980,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="771" spans="1:6">
+    <row r="771" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A771">
         <v>8</v>
       </c>
@@ -11980,7 +12000,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="772" spans="1:6">
+    <row r="772" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A772">
         <v>8</v>
       </c>
@@ -12000,7 +12020,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="773" spans="1:6">
+    <row r="773" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A773">
         <v>8</v>
       </c>
@@ -12020,7 +12040,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="774" spans="1:6">
+    <row r="774" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A774">
         <v>8</v>
       </c>
@@ -12040,7 +12060,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="775" spans="1:6">
+    <row r="775" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A775">
         <v>8</v>
       </c>
@@ -12060,7 +12080,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="776" spans="1:6">
+    <row r="776" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A776">
         <v>8</v>
       </c>
@@ -12080,7 +12100,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="777" spans="1:6">
+    <row r="777" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A777">
         <v>8</v>
       </c>
@@ -12100,7 +12120,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="778" spans="1:6">
+    <row r="778" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A778">
         <v>8</v>
       </c>
@@ -12120,7 +12140,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="779" spans="1:6">
+    <row r="779" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A779">
         <v>8</v>
       </c>
@@ -12140,7 +12160,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="780" spans="1:6">
+    <row r="780" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A780">
         <v>8</v>
       </c>
@@ -12160,7 +12180,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="781" spans="1:6">
+    <row r="781" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A781">
         <v>8</v>
       </c>
@@ -12180,7 +12200,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="782" spans="1:6">
+    <row r="782" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A782">
         <v>8</v>
       </c>
@@ -12200,7 +12220,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="783" spans="1:6">
+    <row r="783" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A783">
         <v>8</v>
       </c>
@@ -12220,7 +12240,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="784" spans="1:6">
+    <row r="784" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A784">
         <v>8</v>
       </c>
@@ -12240,7 +12260,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="785" spans="1:6">
+    <row r="785" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A785">
         <v>8</v>
       </c>
@@ -12260,7 +12280,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="786" spans="1:6">
+    <row r="786" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A786">
         <v>8</v>
       </c>
@@ -12280,7 +12300,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="787" spans="1:6">
+    <row r="787" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A787">
         <v>8</v>
       </c>
@@ -12300,7 +12320,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="788" spans="1:6">
+    <row r="788" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A788">
         <v>8</v>
       </c>
@@ -12320,7 +12340,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="789" spans="1:6">
+    <row r="789" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A789">
         <v>8</v>
       </c>
@@ -12340,7 +12360,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="790" spans="1:6">
+    <row r="790" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A790">
         <v>8</v>
       </c>
@@ -12360,7 +12380,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="791" spans="1:6">
+    <row r="791" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A791">
         <v>8</v>
       </c>
@@ -12380,7 +12400,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="792" spans="1:6">
+    <row r="792" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A792">
         <v>8</v>
       </c>
@@ -12400,7 +12420,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="793" spans="1:6">
+    <row r="793" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A793">
         <v>8</v>
       </c>
@@ -12420,7 +12440,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="794" spans="1:6">
+    <row r="794" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A794">
         <v>8</v>
       </c>
@@ -12440,7 +12460,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="795" spans="1:6">
+    <row r="795" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A795">
         <v>8</v>
       </c>
@@ -12460,7 +12480,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="796" spans="1:6">
+    <row r="796" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A796">
         <v>8</v>
       </c>
@@ -12480,7 +12500,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="797" spans="1:6">
+    <row r="797" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A797">
         <v>8</v>
       </c>
@@ -12500,7 +12520,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="798" spans="1:6">
+    <row r="798" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A798">
         <v>8</v>
       </c>
@@ -12520,7 +12540,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="799" spans="1:6">
+    <row r="799" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A799">
         <v>8</v>
       </c>
@@ -12540,7 +12560,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="800" spans="1:6">
+    <row r="800" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A800">
         <v>8</v>
       </c>
@@ -12560,7 +12580,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="801" spans="1:6">
+    <row r="801" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A801">
         <v>8</v>
       </c>
@@ -12580,7 +12600,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="802" spans="1:6">
+    <row r="802" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A802">
         <v>8</v>
       </c>
@@ -12600,7 +12620,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="803" spans="1:6">
+    <row r="803" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A803">
         <v>8</v>
       </c>
@@ -12620,7 +12640,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="804" spans="1:6">
+    <row r="804" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A804">
         <v>8</v>
       </c>
@@ -12640,7 +12660,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="805" spans="1:6">
+    <row r="805" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A805">
         <v>8</v>
       </c>
@@ -12660,7 +12680,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="806" spans="1:6">
+    <row r="806" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A806">
         <v>8</v>
       </c>
@@ -12680,7 +12700,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="807" spans="1:6">
+    <row r="807" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A807">
         <v>8</v>
       </c>
@@ -12700,7 +12720,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="808" spans="1:6">
+    <row r="808" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A808">
         <v>8</v>
       </c>
@@ -12720,7 +12740,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="809" spans="1:6">
+    <row r="809" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A809">
         <v>8</v>
       </c>
@@ -12740,7 +12760,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="810" spans="1:6">
+    <row r="810" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A810">
         <v>8</v>
       </c>
@@ -12760,7 +12780,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="811" spans="1:6">
+    <row r="811" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A811">
         <v>8</v>
       </c>
@@ -12780,7 +12800,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="812" spans="1:6">
+    <row r="812" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A812">
         <v>8</v>
       </c>
@@ -12800,7 +12820,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="813" spans="1:6">
+    <row r="813" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A813">
         <v>8</v>
       </c>
@@ -12820,7 +12840,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="814" spans="1:6">
+    <row r="814" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A814">
         <v>8</v>
       </c>
@@ -12840,7 +12860,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="815" spans="1:6">
+    <row r="815" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A815">
         <v>8</v>
       </c>
@@ -12860,7 +12880,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="816" spans="1:6">
+    <row r="816" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A816">
         <v>8</v>
       </c>
@@ -12880,7 +12900,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="817" spans="1:6">
+    <row r="817" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A817">
         <v>8</v>
       </c>
@@ -12900,7 +12920,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="818" spans="1:6">
+    <row r="818" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A818">
         <v>8</v>
       </c>
@@ -12920,7 +12940,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="819" spans="1:6">
+    <row r="819" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A819">
         <v>8</v>
       </c>
@@ -12940,7 +12960,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="820" spans="1:6">
+    <row r="820" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A820">
         <v>12</v>
       </c>
@@ -12960,7 +12980,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="821" spans="1:6">
+    <row r="821" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A821">
         <v>12</v>
       </c>
@@ -12980,7 +13000,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="822" spans="1:6">
+    <row r="822" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A822">
         <v>12</v>
       </c>
@@ -13000,7 +13020,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="823" spans="1:6">
+    <row r="823" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A823">
         <v>12</v>
       </c>
@@ -13020,7 +13040,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="824" spans="1:6">
+    <row r="824" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A824">
         <v>12</v>
       </c>
@@ -13040,7 +13060,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="825" spans="1:6">
+    <row r="825" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A825">
         <v>12</v>
       </c>
@@ -13060,7 +13080,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="826" spans="1:6">
+    <row r="826" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A826">
         <v>12</v>
       </c>
@@ -13080,7 +13100,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="827" spans="1:6">
+    <row r="827" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A827">
         <v>12</v>
       </c>
@@ -13100,7 +13120,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="828" spans="1:6">
+    <row r="828" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A828">
         <v>12</v>
       </c>
@@ -13120,7 +13140,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="829" spans="1:6">
+    <row r="829" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A829">
         <v>12</v>
       </c>
@@ -13140,7 +13160,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="830" spans="1:6">
+    <row r="830" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A830">
         <v>12</v>
       </c>
@@ -13160,7 +13180,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="831" spans="1:6">
+    <row r="831" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A831">
         <v>12</v>
       </c>
@@ -13180,7 +13200,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="832" spans="1:6">
+    <row r="832" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A832">
         <v>12</v>
       </c>
@@ -13200,7 +13220,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="833" spans="1:7">
+    <row r="833" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A833">
         <v>12</v>
       </c>
@@ -13220,7 +13240,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="834" spans="1:7">
+    <row r="834" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A834">
         <v>12</v>
       </c>
@@ -13240,7 +13260,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="835" spans="1:7">
+    <row r="835" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A835">
         <v>12</v>
       </c>
@@ -13260,7 +13280,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="836" spans="1:7">
+    <row r="836" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A836">
         <v>12</v>
       </c>
@@ -13280,7 +13300,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="837" spans="1:7">
+    <row r="837" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A837">
         <v>12</v>
       </c>
@@ -13300,7 +13320,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="838" spans="1:7">
+    <row r="838" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A838">
         <v>12</v>
       </c>
@@ -13320,7 +13340,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="839" spans="1:7">
+    <row r="839" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A839">
         <v>12</v>
       </c>
@@ -13340,7 +13360,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="840" spans="1:7">
+    <row r="840" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A840">
         <v>12</v>
       </c>
@@ -13360,7 +13380,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="841" spans="1:7">
+    <row r="841" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A841">
         <v>27</v>
       </c>
@@ -13380,7 +13400,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="842" spans="1:7">
+    <row r="842" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A842">
         <v>27</v>
       </c>
@@ -13400,7 +13420,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="843" spans="1:7">
+    <row r="843" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A843">
         <v>27</v>
       </c>
@@ -13420,7 +13440,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="844" spans="1:7">
+    <row r="844" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A844">
         <v>27</v>
       </c>
@@ -13440,7 +13460,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="845" spans="1:7">
+    <row r="845" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A845">
         <v>27</v>
       </c>
@@ -13460,7 +13480,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="846" spans="1:7">
+    <row r="846" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A846">
         <v>27</v>
       </c>
@@ -13480,7 +13500,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="847" spans="1:7">
+    <row r="847" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A847">
         <v>28</v>
       </c>
@@ -13500,7 +13520,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="848" spans="1:7">
+    <row r="848" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A848">
         <v>3</v>
       </c>
@@ -13523,7 +13543,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="849" spans="1:7">
+    <row r="849" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A849">
         <v>3</v>
       </c>
@@ -13546,7 +13566,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="850" spans="1:7">
+    <row r="850" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A850">
         <v>3</v>
       </c>
@@ -13569,7 +13589,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="851" spans="1:7">
+    <row r="851" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A851">
         <v>3</v>
       </c>
@@ -13592,7 +13612,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="852" spans="1:7">
+    <row r="852" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A852">
         <v>3</v>
       </c>
@@ -13615,7 +13635,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="853" spans="1:7">
+    <row r="853" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A853">
         <v>3</v>
       </c>
@@ -13638,7 +13658,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="854" spans="1:7">
+    <row r="854" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A854">
         <v>3</v>
       </c>
@@ -13661,7 +13681,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="855" spans="1:7">
+    <row r="855" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A855">
         <v>3</v>
       </c>
@@ -13684,7 +13704,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="856" spans="1:7">
+    <row r="856" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A856">
         <v>3</v>
       </c>
@@ -13707,7 +13727,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="857" spans="1:7">
+    <row r="857" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A857">
         <v>3</v>
       </c>
@@ -13730,7 +13750,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="858" spans="1:7">
+    <row r="858" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A858">
         <v>3</v>
       </c>
@@ -13753,7 +13773,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="859" spans="1:7">
+    <row r="859" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A859">
         <v>3</v>
       </c>
@@ -13776,7 +13796,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="860" spans="1:7">
+    <row r="860" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A860">
         <v>3</v>
       </c>
@@ -13799,7 +13819,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="861" spans="1:7">
+    <row r="861" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A861">
         <v>3</v>
       </c>
@@ -13822,7 +13842,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="862" spans="1:7">
+    <row r="862" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A862">
         <v>3</v>
       </c>
@@ -13845,7 +13865,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="863" spans="1:7">
+    <row r="863" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A863">
         <v>3</v>
       </c>
@@ -13868,7 +13888,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="864" spans="1:7">
+    <row r="864" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A864">
         <v>3</v>
       </c>
@@ -13891,7 +13911,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="865" spans="1:7">
+    <row r="865" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A865">
         <v>3</v>
       </c>
@@ -13914,7 +13934,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="866" spans="1:7">
+    <row r="866" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A866">
         <v>3</v>
       </c>
@@ -13937,7 +13957,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="867" spans="1:7">
+    <row r="867" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A867">
         <v>3</v>
       </c>
@@ -13960,7 +13980,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="868" spans="1:7">
+    <row r="868" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A868">
         <v>3</v>
       </c>
@@ -13983,7 +14003,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="869" spans="1:7">
+    <row r="869" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A869">
         <v>3</v>
       </c>
@@ -14006,7 +14026,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="870" spans="1:7">
+    <row r="870" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A870">
         <v>3</v>
       </c>
@@ -14029,7 +14049,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="871" spans="1:7">
+    <row r="871" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A871">
         <v>3</v>
       </c>
@@ -14052,7 +14072,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="872" spans="1:7">
+    <row r="872" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A872">
         <v>3</v>
       </c>
@@ -14075,7 +14095,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="873" spans="1:7">
+    <row r="873" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A873">
         <v>3</v>
       </c>
@@ -14098,7 +14118,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="874" spans="1:7">
+    <row r="874" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A874">
         <v>3</v>
       </c>
@@ -14121,7 +14141,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="875" spans="1:7">
+    <row r="875" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A875">
         <v>3</v>
       </c>
@@ -14144,7 +14164,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="876" spans="1:7">
+    <row r="876" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A876">
         <v>3</v>
       </c>
@@ -14167,7 +14187,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="877" spans="1:7">
+    <row r="877" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A877">
         <v>3</v>
       </c>
@@ -14190,7 +14210,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="878" spans="1:7">
+    <row r="878" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A878">
         <v>3</v>
       </c>
@@ -14213,7 +14233,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="879" spans="1:7">
+    <row r="879" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A879">
         <v>3</v>
       </c>
@@ -14236,7 +14256,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="880" spans="1:7">
+    <row r="880" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A880">
         <v>3</v>
       </c>
@@ -14259,7 +14279,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="881" spans="1:7">
+    <row r="881" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A881">
         <v>3</v>
       </c>
@@ -14282,7 +14302,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="882" spans="1:7">
+    <row r="882" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A882">
         <v>3</v>
       </c>
@@ -14305,7 +14325,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="883" spans="1:7">
+    <row r="883" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A883">
         <v>3</v>
       </c>
@@ -14328,7 +14348,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="884" spans="1:7">
+    <row r="884" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A884">
         <v>3</v>
       </c>
@@ -14351,7 +14371,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="885" spans="1:7">
+    <row r="885" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A885">
         <v>3</v>
       </c>
@@ -14374,7 +14394,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="886" spans="1:7">
+    <row r="886" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A886">
         <v>3</v>
       </c>
@@ -14397,7 +14417,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="887" spans="1:7">
+    <row r="887" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A887">
         <v>3</v>
       </c>
@@ -14420,7 +14440,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="888" spans="1:7">
+    <row r="888" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A888">
         <v>3</v>
       </c>
@@ -14443,7 +14463,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="889" spans="1:7">
+    <row r="889" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A889">
         <v>3</v>
       </c>
@@ -14466,7 +14486,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="890" spans="1:7">
+    <row r="890" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A890">
         <v>3</v>
       </c>
@@ -14489,7 +14509,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="891" spans="1:7">
+    <row r="891" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A891">
         <v>3</v>
       </c>
@@ -14512,7 +14532,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="892" spans="1:7">
+    <row r="892" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A892">
         <v>3</v>
       </c>
@@ -14535,7 +14555,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="893" spans="1:7">
+    <row r="893" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A893">
         <v>3</v>
       </c>
@@ -14558,7 +14578,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="894" spans="1:7">
+    <row r="894" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A894">
         <v>3</v>
       </c>
@@ -14581,7 +14601,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="895" spans="1:7">
+    <row r="895" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A895">
         <v>3</v>
       </c>
@@ -14604,7 +14624,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="896" spans="1:7">
+    <row r="896" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A896">
         <v>3</v>
       </c>
@@ -14627,7 +14647,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="897" spans="1:7">
+    <row r="897" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A897">
         <v>3</v>
       </c>
@@ -14650,7 +14670,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="898" spans="1:7">
+    <row r="898" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A898">
         <v>3</v>
       </c>
@@ -14673,7 +14693,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="899" spans="1:7">
+    <row r="899" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A899">
         <v>3</v>
       </c>
@@ -14696,7 +14716,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="900" spans="1:7">
+    <row r="900" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A900">
         <v>3</v>
       </c>
@@ -14719,7 +14739,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="901" spans="1:7">
+    <row r="901" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A901">
         <v>3</v>
       </c>
@@ -14742,7 +14762,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="902" spans="1:7">
+    <row r="902" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A902">
         <v>3</v>
       </c>
@@ -14765,7 +14785,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="903" spans="1:7">
+    <row r="903" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A903">
         <v>3</v>
       </c>
@@ -14788,7 +14808,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="904" spans="1:7">
+    <row r="904" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A904">
         <v>3</v>
       </c>
@@ -14811,7 +14831,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="905" spans="1:7">
+    <row r="905" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A905">
         <v>3</v>
       </c>
@@ -14834,7 +14854,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="906" spans="1:7">
+    <row r="906" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A906">
         <v>3</v>
       </c>
@@ -14857,7 +14877,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="907" spans="1:7">
+    <row r="907" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A907">
         <v>3</v>
       </c>
@@ -14880,7 +14900,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="908" spans="1:7">
+    <row r="908" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A908">
         <v>3</v>
       </c>
@@ -14903,7 +14923,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="909" spans="1:7">
+    <row r="909" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A909">
         <v>3</v>
       </c>
@@ -14926,7 +14946,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="910" spans="1:7">
+    <row r="910" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A910">
         <v>3</v>
       </c>
@@ -14949,7 +14969,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="911" spans="1:7">
+    <row r="911" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A911">
         <v>3</v>
       </c>
@@ -14972,7 +14992,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="912" spans="1:7">
+    <row r="912" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A912">
         <v>3</v>
       </c>
@@ -14995,7 +15015,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="913" spans="1:7">
+    <row r="913" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A913">
         <v>3</v>
       </c>
@@ -15018,7 +15038,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="914" spans="1:7">
+    <row r="914" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A914">
         <v>3</v>
       </c>
@@ -15041,7 +15061,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="915" spans="1:7">
+    <row r="915" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A915">
         <v>3</v>
       </c>
@@ -15064,7 +15084,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="916" spans="1:7">
+    <row r="916" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A916">
         <v>3</v>
       </c>
@@ -15087,7 +15107,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="917" spans="1:7">
+    <row r="917" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A917">
         <v>3</v>
       </c>
@@ -15110,7 +15130,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="918" spans="1:7">
+    <row r="918" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A918">
         <v>3</v>
       </c>
@@ -15133,7 +15153,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="919" spans="1:7">
+    <row r="919" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A919">
         <v>3</v>
       </c>
@@ -15156,7 +15176,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="920" spans="1:7">
+    <row r="920" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A920">
         <v>3</v>
       </c>
@@ -15179,7 +15199,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="921" spans="1:7">
+    <row r="921" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A921">
         <v>3</v>
       </c>
@@ -15202,7 +15222,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="922" spans="1:7">
+    <row r="922" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A922">
         <v>3</v>
       </c>
@@ -15225,7 +15245,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="923" spans="1:7">
+    <row r="923" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A923">
         <v>3</v>
       </c>
@@ -15248,7 +15268,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="924" spans="1:7">
+    <row r="924" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A924">
         <v>3</v>
       </c>
@@ -15271,7 +15291,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="925" spans="1:7">
+    <row r="925" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A925">
         <v>3</v>
       </c>
@@ -15294,7 +15314,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="926" spans="1:7">
+    <row r="926" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A926">
         <v>3</v>
       </c>
@@ -15317,7 +15337,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="927" spans="1:7">
+    <row r="927" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A927">
         <v>3</v>
       </c>
@@ -15340,7 +15360,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="928" spans="1:7">
+    <row r="928" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A928">
         <v>3</v>
       </c>
@@ -15363,7 +15383,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="929" spans="1:7">
+    <row r="929" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A929">
         <v>3</v>
       </c>
@@ -15386,7 +15406,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="930" spans="1:7">
+    <row r="930" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A930">
         <v>3</v>
       </c>
@@ -15409,7 +15429,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="931" spans="1:7">
+    <row r="931" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A931">
         <v>3</v>
       </c>
@@ -15432,7 +15452,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="932" spans="1:7">
+    <row r="932" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A932">
         <v>8</v>
       </c>
@@ -15455,7 +15475,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="933" spans="1:7">
+    <row r="933" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A933">
         <v>8</v>
       </c>
@@ -15478,7 +15498,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="934" spans="1:7">
+    <row r="934" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A934">
         <v>8</v>
       </c>
@@ -15501,7 +15521,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="935" spans="1:7">
+    <row r="935" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A935">
         <v>8</v>
       </c>
@@ -15524,7 +15544,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="936" spans="1:7">
+    <row r="936" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A936">
         <v>8</v>
       </c>
@@ -15547,7 +15567,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="937" spans="1:7">
+    <row r="937" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A937">
         <v>8</v>
       </c>
@@ -15570,7 +15590,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="938" spans="1:7">
+    <row r="938" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A938">
         <v>8</v>
       </c>
@@ -15593,7 +15613,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="939" spans="1:7">
+    <row r="939" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A939">
         <v>8</v>
       </c>
@@ -15616,7 +15636,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="940" spans="1:7">
+    <row r="940" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A940">
         <v>8</v>
       </c>
@@ -15639,7 +15659,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="941" spans="1:7">
+    <row r="941" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A941">
         <v>8</v>
       </c>
@@ -15662,7 +15682,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="942" spans="1:7">
+    <row r="942" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A942">
         <v>8</v>
       </c>
@@ -15685,7 +15705,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="943" spans="1:7">
+    <row r="943" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A943">
         <v>8</v>
       </c>
@@ -15708,7 +15728,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="944" spans="1:7">
+    <row r="944" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A944">
         <v>8</v>
       </c>
@@ -15731,7 +15751,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="945" spans="1:7">
+    <row r="945" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A945">
         <v>8</v>
       </c>
@@ -15754,7 +15774,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="946" spans="1:7">
+    <row r="946" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A946">
         <v>8</v>
       </c>
@@ -15777,7 +15797,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="947" spans="1:7">
+    <row r="947" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A947">
         <v>8</v>
       </c>
@@ -15800,7 +15820,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="948" spans="1:7">
+    <row r="948" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A948">
         <v>8</v>
       </c>
@@ -15823,7 +15843,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="949" spans="1:7">
+    <row r="949" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A949">
         <v>8</v>
       </c>
@@ -15846,7 +15866,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="950" spans="1:7">
+    <row r="950" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A950">
         <v>8</v>
       </c>
@@ -15869,7 +15889,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="951" spans="1:7">
+    <row r="951" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A951">
         <v>8</v>
       </c>
@@ -15892,7 +15912,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="952" spans="1:7">
+    <row r="952" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A952">
         <v>8</v>
       </c>
@@ -15915,7 +15935,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="953" spans="1:7">
+    <row r="953" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A953">
         <v>8</v>
       </c>
@@ -15938,7 +15958,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="954" spans="1:7">
+    <row r="954" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A954">
         <v>8</v>
       </c>
@@ -15961,7 +15981,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="955" spans="1:7">
+    <row r="955" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A955">
         <v>8</v>
       </c>
@@ -15984,7 +16004,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="956" spans="1:7">
+    <row r="956" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A956">
         <v>8</v>
       </c>
@@ -16007,7 +16027,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="957" spans="1:7">
+    <row r="957" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A957">
         <v>8</v>
       </c>
@@ -16030,7 +16050,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="958" spans="1:7">
+    <row r="958" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A958">
         <v>8</v>
       </c>
@@ -16053,7 +16073,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="959" spans="1:7">
+    <row r="959" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A959">
         <v>8</v>
       </c>
@@ -16076,7 +16096,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="960" spans="1:7">
+    <row r="960" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A960">
         <v>12</v>
       </c>
@@ -16099,7 +16119,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="961" spans="1:8">
+    <row r="961" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A961">
         <v>12</v>
       </c>
@@ -16122,7 +16142,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="962" spans="1:8">
+    <row r="962" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A962">
         <v>12</v>
       </c>
@@ -16145,7 +16165,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="963" spans="1:8">
+    <row r="963" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A963">
         <v>12</v>
       </c>
@@ -16168,7 +16188,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="964" spans="1:8">
+    <row r="964" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A964">
         <v>12</v>
       </c>
@@ -16191,7 +16211,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="965" spans="1:8">
+    <row r="965" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A965">
         <v>12</v>
       </c>
@@ -16214,7 +16234,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="966" spans="1:8">
+    <row r="966" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A966">
         <v>12</v>
       </c>
@@ -16237,7 +16257,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="967" spans="1:8">
+    <row r="967" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A967">
         <v>27</v>
       </c>
@@ -16260,7 +16280,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="968" spans="1:8">
+    <row r="968" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A968">
         <v>3</v>
       </c>
@@ -16286,7 +16306,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="969" spans="1:8">
+    <row r="969" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A969">
         <v>3</v>
       </c>
@@ -16312,7 +16332,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="970" spans="1:8">
+    <row r="970" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A970">
         <v>3</v>
       </c>
@@ -16338,7 +16358,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="971" spans="1:8">
+    <row r="971" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A971">
         <v>3</v>
       </c>
@@ -16364,7 +16384,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="972" spans="1:8">
+    <row r="972" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A972">
         <v>3</v>
       </c>
@@ -16390,7 +16410,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="973" spans="1:8">
+    <row r="973" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A973">
         <v>3</v>
       </c>
@@ -16416,7 +16436,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="974" spans="1:8">
+    <row r="974" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A974">
         <v>3</v>
       </c>
@@ -16442,7 +16462,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="975" spans="1:8">
+    <row r="975" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A975">
         <v>3</v>
       </c>
@@ -16468,7 +16488,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="976" spans="1:8">
+    <row r="976" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A976">
         <v>3</v>
       </c>
@@ -16494,7 +16514,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="977" spans="1:8">
+    <row r="977" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A977">
         <v>3</v>
       </c>
@@ -16520,7 +16540,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="978" spans="1:8">
+    <row r="978" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A978">
         <v>3</v>
       </c>
@@ -16546,7 +16566,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="979" spans="1:8">
+    <row r="979" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A979">
         <v>3</v>
       </c>
@@ -16572,7 +16592,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="980" spans="1:8">
+    <row r="980" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A980">
         <v>3</v>
       </c>
@@ -16598,7 +16618,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="981" spans="1:8">
+    <row r="981" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A981">
         <v>3</v>
       </c>
@@ -16624,7 +16644,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="982" spans="1:8">
+    <row r="982" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A982">
         <v>3</v>
       </c>
@@ -16650,7 +16670,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="983" spans="1:8">
+    <row r="983" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A983">
         <v>3</v>
       </c>
@@ -16676,7 +16696,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="984" spans="1:8">
+    <row r="984" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A984">
         <v>3</v>
       </c>
@@ -16702,7 +16722,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="985" spans="1:8">
+    <row r="985" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A985">
         <v>3</v>
       </c>
@@ -16728,7 +16748,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="986" spans="1:8">
+    <row r="986" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A986">
         <v>3</v>
       </c>
@@ -16754,7 +16774,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="987" spans="1:8">
+    <row r="987" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A987">
         <v>3</v>
       </c>
@@ -16780,7 +16800,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="988" spans="1:8">
+    <row r="988" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A988">
         <v>3</v>
       </c>
@@ -16806,7 +16826,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="989" spans="1:8">
+    <row r="989" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A989">
         <v>3</v>
       </c>
@@ -16832,7 +16852,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="990" spans="1:8">
+    <row r="990" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A990">
         <v>3</v>
       </c>
@@ -16858,7 +16878,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="991" spans="1:8">
+    <row r="991" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A991">
         <v>3</v>
       </c>
@@ -16884,7 +16904,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="992" spans="1:8">
+    <row r="992" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A992">
         <v>3</v>
       </c>
@@ -16910,7 +16930,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="993" spans="1:8">
+    <row r="993" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A993">
         <v>3</v>
       </c>
@@ -16936,7 +16956,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="994" spans="1:8">
+    <row r="994" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A994">
         <v>3</v>
       </c>
@@ -16962,7 +16982,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="995" spans="1:8">
+    <row r="995" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A995">
         <v>3</v>
       </c>
@@ -16988,7 +17008,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="996" spans="1:8">
+    <row r="996" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A996">
         <v>3</v>
       </c>
@@ -17014,7 +17034,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="997" spans="1:8">
+    <row r="997" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A997">
         <v>3</v>
       </c>
@@ -17040,7 +17060,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="998" spans="1:8">
+    <row r="998" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A998">
         <v>3</v>
       </c>
@@ -17066,7 +17086,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="999" spans="1:8">
+    <row r="999" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A999">
         <v>3</v>
       </c>
@@ -17092,7 +17112,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="1000" spans="1:8">
+    <row r="1000" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1000">
         <v>3</v>
       </c>
@@ -17118,7 +17138,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="1001" spans="1:8">
+    <row r="1001" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1001">
         <v>3</v>
       </c>
@@ -17144,7 +17164,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="1002" spans="1:8">
+    <row r="1002" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1002">
         <v>3</v>
       </c>
@@ -17170,7 +17190,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="1003" spans="1:8">
+    <row r="1003" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1003">
         <v>3</v>
       </c>
@@ -17196,7 +17216,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="1004" spans="1:8">
+    <row r="1004" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1004">
         <v>8</v>
       </c>
@@ -17222,7 +17242,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="1005" spans="1:8">
+    <row r="1005" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1005">
         <v>8</v>
       </c>
@@ -17248,7 +17268,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="1006" spans="1:8">
+    <row r="1006" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1006">
         <v>8</v>
       </c>
@@ -17274,7 +17294,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="1007" spans="1:8">
+    <row r="1007" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1007">
         <v>8</v>
       </c>
@@ -17300,7 +17320,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="1008" spans="1:8">
+    <row r="1008" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1008">
         <v>8</v>
       </c>
@@ -17326,7 +17346,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="1009" spans="1:10">
+    <row r="1009" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1009">
         <v>8</v>
       </c>
@@ -17352,7 +17372,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="1010" spans="1:10">
+    <row r="1010" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1010">
         <v>8</v>
       </c>
@@ -17378,7 +17398,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="1011" spans="1:10">
+    <row r="1011" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1011">
         <v>8</v>
       </c>
@@ -17404,7 +17424,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="1012" spans="1:10">
+    <row r="1012" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1012">
         <v>12</v>
       </c>
@@ -17430,7 +17450,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="1013" spans="1:10">
+    <row r="1013" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1013">
         <v>3</v>
       </c>
@@ -17459,7 +17479,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="1014" spans="1:10">
+    <row r="1014" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1014">
         <v>3</v>
       </c>
@@ -17488,7 +17508,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="1015" spans="1:10">
+    <row r="1015" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1015">
         <v>3</v>
       </c>
@@ -17517,7 +17537,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="1016" spans="1:10">
+    <row r="1016" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1016">
         <v>3</v>
       </c>
@@ -17546,7 +17566,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="1017" spans="1:10">
+    <row r="1017" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1017">
         <v>3</v>
       </c>
@@ -17575,7 +17595,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="1018" spans="1:10">
+    <row r="1018" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1018">
         <v>3</v>
       </c>
@@ -17604,7 +17624,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="1019" spans="1:10">
+    <row r="1019" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1019">
         <v>3</v>
       </c>
@@ -17633,7 +17653,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="1020" spans="1:10">
+    <row r="1020" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1020">
         <v>3</v>
       </c>
@@ -17662,7 +17682,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="1021" spans="1:10">
+    <row r="1021" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1021">
         <v>3</v>
       </c>
@@ -17691,7 +17711,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="1022" spans="1:10">
+    <row r="1022" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1022">
         <v>8</v>
       </c>
@@ -17720,7 +17740,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="1023" spans="1:10">
+    <row r="1023" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1023">
         <v>3</v>
       </c>
